--- a/Cost and Production.xlsx
+++ b/Cost and Production.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mizoram University\Mizoram University\Business Economics\Business Economics Unit 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778A6F63-D5ED-4997-B4FC-52CB19E8BCC9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358129C4-D4DC-4A20-A146-8B9CD6E42CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Amount of Capital</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>MC</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
   </si>
 </sst>
 </file>
@@ -518,8 +524,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -547,7 +553,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$H$46:$H$56</c:f>
               <c:numCache>
@@ -588,8 +594,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FF82-4168-A8E8-4712D2448FBD}"/>
@@ -604,11 +610,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="684785823"/>
         <c:axId val="684789567"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="684785823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -653,11 +658,8 @@
         </c:txPr>
         <c:crossAx val="684789567"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="684789567"/>
         <c:scaling>
@@ -712,7 +714,1658 @@
         </c:txPr>
         <c:crossAx val="684785823"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TFC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$46:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74D7-48B4-A92D-992FE0EAFF1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$46:$C$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-74D7-48B4-A92D-992FE0EAFF1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$46:$D$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>370</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-74D7-48B4-A92D-992FE0EAFF1F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="686179167"/>
+        <c:axId val="686179583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="686179167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686179583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="686179583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="686179167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$102:$D$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$102:$E$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D972-49C8-AA79-798E811E01BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$101</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$102:$D$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$102:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D972-49C8-AA79-798E811E01BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="92956736"/>
+        <c:axId val="2105359072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="92956736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2105359072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2105359072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92956736"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AVC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$46:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C06A-4CBF-95D0-EEEAC7B3AF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$46:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C06A-4CBF-95D0-EEEAC7B3AF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$46:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27.333333333333332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C06A-4CBF-95D0-EEEAC7B3AF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$46:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$46:$H$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C06A-4CBF-95D0-EEEAC7B3AF38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="169284336"/>
+        <c:axId val="169281008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="169284336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169281008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="169281008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="169284336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1615,8 +3268,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1644,7 +3297,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$E$46:$E$56</c:f>
               <c:numCache>
@@ -1685,8 +3338,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8051-40E9-8CC4-7345CF2EDECB}"/>
@@ -1701,11 +3354,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="684785823"/>
         <c:axId val="684789567"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="684785823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1750,11 +3402,8 @@
         </c:txPr>
         <c:crossAx val="684789567"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="684789567"/>
         <c:scaling>
@@ -1809,7 +3458,7 @@
         </c:txPr>
         <c:crossAx val="684785823"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1941,8 +3590,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1970,7 +3619,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$F$46:$F$56</c:f>
               <c:numCache>
@@ -2011,8 +3660,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D74-4B0C-90C6-A2E40040728C}"/>
@@ -2027,11 +3676,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="684785823"/>
         <c:axId val="684789567"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="684785823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2076,11 +3724,8 @@
         </c:txPr>
         <c:crossAx val="684789567"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="684789567"/>
         <c:scaling>
@@ -2135,7 +3780,7 @@
         </c:txPr>
         <c:crossAx val="684785823"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2267,8 +3912,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2296,7 +3941,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$46:$C$56</c:f>
               <c:numCache>
@@ -2337,8 +3982,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1E64-4FAC-A2CD-F37C73CFAC3D}"/>
@@ -2353,11 +3998,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="553326479"/>
         <c:axId val="553326895"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="553326479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2402,11 +4046,8 @@
         </c:txPr>
         <c:crossAx val="553326895"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="553326895"/>
         <c:scaling>
@@ -2461,7 +4102,7 @@
         </c:txPr>
         <c:crossAx val="553326479"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2593,8 +4234,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2622,7 +4263,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$46:$B$56</c:f>
               <c:numCache>
@@ -2663,8 +4304,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6D87-4BD0-A31E-DF056D52701F}"/>
@@ -2679,17 +4320,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="686179167"/>
         <c:axId val="686179583"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="686179167"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2728,15 +4369,13 @@
         </c:txPr>
         <c:crossAx val="686179583"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="686179583"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2787,7 +4426,8 @@
         </c:txPr>
         <c:crossAx val="686179167"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2919,8 +4559,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2948,7 +4588,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$D$46:$D$56</c:f>
               <c:numCache>
@@ -2989,8 +4629,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AD8F-4445-9A46-C914DCE34364}"/>
@@ -3005,11 +4645,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="684785823"/>
         <c:axId val="684789567"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="684785823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3054,11 +4693,8 @@
         </c:txPr>
         <c:crossAx val="684789567"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="684789567"/>
         <c:scaling>
@@ -3113,7 +4749,7 @@
         </c:txPr>
         <c:crossAx val="684785823"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3245,8 +4881,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -3274,7 +4910,7 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:val>
+          <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$G$46:$G$56</c:f>
               <c:numCache>
@@ -3315,8 +4951,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-59DB-4475-8970-9BEF048384D0}"/>
@@ -3331,11 +4967,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
         <c:axId val="684785823"/>
         <c:axId val="684789567"/>
-      </c:lineChart>
-      <c:catAx>
+      </c:scatterChart>
+      <c:valAx>
         <c:axId val="684785823"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -3380,11 +5015,8 @@
         </c:txPr>
         <c:crossAx val="684789567"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
         <c:axId val="684789567"/>
         <c:scaling>
@@ -3439,7 +5071,7 @@
         </c:txPr>
         <c:crossAx val="684785823"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3565,6 +5197,126 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4441,6 +6193,1554 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9460,6 +12760,116 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8F34134-177C-4B5F-B118-BBBC1EB67E29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE72A28-DAA0-4E66-9130-8C8BE8F28FD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E51891A-16B9-4750-8D0A-14FE4FD0856D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9726,10 +13136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10329,6 +13739,146 @@
         <v>70</v>
       </c>
     </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109">
+        <v>7</v>
+      </c>
+      <c r="F109">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>8</v>
+      </c>
+      <c r="E110">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>9</v>
+      </c>
+      <c r="E111">
+        <v>9</v>
+      </c>
+      <c r="F111">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112">
+        <v>10</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>11</v>
+      </c>
+      <c r="E113">
+        <v>11</v>
+      </c>
+      <c r="F113">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Cost and Production.xlsx
+++ b/Cost and Production.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mizoram University\Mizoram University\Business Economics\Business Economics Unit 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358129C4-D4DC-4A20-A146-8B9CD6E42CB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFDBF80-E591-4090-BF86-62BCF90D9D32}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Q1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Amount of Capital</t>
   </si>
@@ -83,6 +84,24 @@
   <si>
     <t>B</t>
   </si>
+  <si>
+    <t>Unit (Q)</t>
+  </si>
+  <si>
+    <t>ATC</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
 </sst>
 </file>
 
@@ -125,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -134,6 +153,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12762,16 +12787,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12836,16 +12861,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>433387</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13138,8 +13163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView topLeftCell="B45" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13884,4 +13909,430 @@
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAE0A09-89F3-49BD-B419-608CDE2A707F}">
+  <dimension ref="A4:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>145</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5+B5</f>
+        <v>145</v>
+      </c>
+      <c r="E5" s="4">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>145</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" ref="D6:D11" si="0">C6+B6</f>
+        <v>175</v>
+      </c>
+      <c r="E6" s="5">
+        <f>D6/A6</f>
+        <v>175</v>
+      </c>
+      <c r="F6" s="5">
+        <f>C6/A6</f>
+        <v>30</v>
+      </c>
+      <c r="G6" s="4">
+        <f>(D6-D5)/(A6-A5)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>145</v>
+      </c>
+      <c r="C7" s="4">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:E11" si="1">D7/A7</f>
+        <v>100</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" ref="F7:F11" si="2">C7/A7</f>
+        <v>27.5</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" ref="G7:G11" si="3">(D7-D6)/(A7-A6)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4">
+        <v>145</v>
+      </c>
+      <c r="C8" s="4">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4">
+        <v>145</v>
+      </c>
+      <c r="C9" s="4">
+        <v>105</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>62.5</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="2"/>
+        <v>26.25</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>5</v>
+      </c>
+      <c r="B10" s="4">
+        <v>145</v>
+      </c>
+      <c r="C10" s="4">
+        <v>155</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>6</v>
+      </c>
+      <c r="B11" s="4">
+        <v>145</v>
+      </c>
+      <c r="C11" s="4">
+        <v>225</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="G11" s="4">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>0</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="4">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4">
+        <v>5</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
+        <v>5</v>
+      </c>
+      <c r="C20" s="4">
+        <f>B20*A20</f>
+        <v>5</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10</v>
+      </c>
+      <c r="E20" s="4">
+        <v>5</v>
+      </c>
+      <c r="F20" s="4">
+        <f>D20-E20</f>
+        <v>5</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="shared" ref="H20:H24" si="4">(D20-D19)/(A20-A19)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4">
+        <v>5</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" ref="C21:C24" si="5">B21*A21</f>
+        <v>10</v>
+      </c>
+      <c r="D21" s="4">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4">
+        <v>5</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ref="F21:F24" si="6">D21-E21</f>
+        <v>7</v>
+      </c>
+      <c r="G21" s="4">
+        <f t="shared" ref="G21:G24" si="7">C21-C20</f>
+        <v>5</v>
+      </c>
+      <c r="H21" s="4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="D22" s="4">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="D23" s="4">
+        <v>19</v>
+      </c>
+      <c r="E23" s="4">
+        <v>5</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G23" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H23" s="4">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>5</v>
+      </c>
+      <c r="B24" s="4">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="D24" s="4">
+        <v>24</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G24" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="H24" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>